--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.141667333333333</v>
+        <v>5.040175333333333</v>
       </c>
       <c r="H2">
-        <v>12.425002</v>
+        <v>15.120526</v>
       </c>
       <c r="I2">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="J2">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.08519967468</v>
+        <v>1.32062674084</v>
       </c>
       <c r="R2">
-        <v>9.766797072120001</v>
+        <v>11.88564066756</v>
       </c>
       <c r="S2">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="T2">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>18.144572</v>
       </c>
       <c r="I3">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="J3">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -641,10 +641,10 @@
         <v>14.26272226632</v>
       </c>
       <c r="S3">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="T3">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.637153666666666</v>
+        <v>4.433369666666667</v>
       </c>
       <c r="H4">
-        <v>10.911461</v>
+        <v>13.300109</v>
       </c>
       <c r="I4">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="J4">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.9530070037399998</v>
+        <v>1.16163152006</v>
       </c>
       <c r="R4">
-        <v>8.57706303366</v>
+        <v>10.45468368054</v>
       </c>
       <c r="S4">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="T4">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.741341666666667</v>
+        <v>3.607224333333333</v>
       </c>
       <c r="H5">
-        <v>17.224025</v>
+        <v>10.821673</v>
       </c>
       <c r="I5">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="J5">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.5043463435</v>
+        <v>0.9451649198199998</v>
       </c>
       <c r="R5">
-        <v>13.5391170915</v>
+        <v>8.506484278379999</v>
       </c>
       <c r="S5">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="T5">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.493902333333334</v>
+        <v>6.973136333333334</v>
       </c>
       <c r="H6">
-        <v>16.481707</v>
+        <v>20.919409</v>
       </c>
       <c r="I6">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="J6">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.43951228938</v>
+        <v>1.82710118206</v>
       </c>
       <c r="R6">
-        <v>12.95561060442</v>
+        <v>16.44391063854</v>
       </c>
       <c r="S6">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="T6">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.966088666666666</v>
+        <v>4.652614333333333</v>
       </c>
       <c r="H7">
-        <v>11.898266</v>
+        <v>13.957843</v>
       </c>
       <c r="I7">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="J7">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1.03919455244</v>
+        <v>1.21907800762</v>
       </c>
       <c r="R7">
-        <v>9.352750971959999</v>
+        <v>10.97170206858</v>
       </c>
       <c r="S7">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="T7">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
     </row>
   </sheetData>
